--- a/Mifos Automation Excels/Client/3503-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-%APR-AMT-Reg-PERIODIC-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3503-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-DISBURSE-FEE-%APR-AMT-Reg-PERIODIC-Makerepayment1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>makerepayment</t>
   </si>
@@ -67,9 +62,6 @@
   </si>
   <si>
     <t>Paid Date</t>
-  </si>
-  <si>
-    <t>Heading</t>
   </si>
   <si>
     <t>Principal Due</t>
@@ -126,20 +118,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
@@ -205,9 +196,6 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -221,8 +209,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -284,7 +275,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,26 +308,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -369,23 +343,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -720,62 +677,59 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="10" t="s">
+      <c r="O1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="10" t="s">
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16" t="s">
         <v>9</v>
       </c>
     </row>
@@ -806,6 +760,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -820,7 +775,7 @@
       <c r="D3" s="9">
         <v>42036</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="3">
         <v>831.83</v>
       </c>
@@ -837,18 +792,19 @@
         <v>0</v>
       </c>
       <c r="K3" s="3">
-        <v>887.72</v>
+        <v>55.89</v>
       </c>
       <c r="L3" s="3">
         <v>887.72</v>
       </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3">
+        <v>831.83</v>
+      </c>
       <c r="O3" s="3">
         <v>0</v>
       </c>
+      <c r="P3" s="3"/>
       <c r="Q3" s="3">
         <v>0</v>
       </c>
@@ -886,13 +842,14 @@
       <c r="L4" s="3">
         <v>0</v>
       </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
       <c r="O4" s="3">
         <v>0</v>
       </c>
+      <c r="P4" s="3"/>
       <c r="Q4" s="3">
         <v>887.72</v>
       </c>
@@ -930,13 +887,14 @@
       <c r="L5" s="3">
         <v>0</v>
       </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
       <c r="O5" s="3">
         <v>0</v>
       </c>
+      <c r="P5" s="3"/>
       <c r="Q5" s="3">
         <v>887.72</v>
       </c>
@@ -974,13 +932,14 @@
       <c r="L6" s="3">
         <v>0</v>
       </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
       <c r="O6" s="3">
         <v>0</v>
       </c>
+      <c r="P6" s="3"/>
       <c r="Q6" s="3">
         <v>887.72</v>
       </c>
@@ -1018,13 +977,14 @@
       <c r="L7" s="3">
         <v>0</v>
       </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
       <c r="O7" s="3">
         <v>0</v>
       </c>
+      <c r="P7" s="3"/>
       <c r="Q7" s="3">
         <v>887.72</v>
       </c>
@@ -1062,13 +1022,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
+      <c r="P8" s="3"/>
       <c r="Q8" s="3">
         <v>887.72</v>
       </c>
@@ -1106,13 +1067,14 @@
       <c r="L9" s="3">
         <v>0</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
+      <c r="P9" s="3"/>
       <c r="Q9" s="3">
         <v>887.72</v>
       </c>
@@ -1150,13 +1112,14 @@
       <c r="L10" s="3">
         <v>0</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
+      <c r="P10" s="3"/>
       <c r="Q10" s="3">
         <v>887.72</v>
       </c>
@@ -1194,13 +1157,14 @@
       <c r="L11" s="3">
         <v>0</v>
       </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
       <c r="O11" s="3">
         <v>0</v>
       </c>
+      <c r="P11" s="3"/>
       <c r="Q11" s="3">
         <v>887.72</v>
       </c>
@@ -1238,13 +1202,14 @@
       <c r="L12" s="3">
         <v>0</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
       <c r="O12" s="3">
         <v>0</v>
       </c>
+      <c r="P12" s="3"/>
       <c r="Q12" s="3">
         <v>887.72</v>
       </c>
@@ -1282,13 +1247,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
       <c r="O13" s="3">
         <v>0</v>
       </c>
+      <c r="P13" s="3"/>
       <c r="Q13" s="3">
         <v>887.72</v>
       </c>
@@ -1326,13 +1292,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
+      <c r="P14" s="3"/>
       <c r="Q14" s="3">
         <v>807.26</v>
       </c>
@@ -1357,131 +1324,131 @@
     <col min="3" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>1943</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="12">
-        <v>1943</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="12">
+        <v>42036</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="11">
+        <v>887.72</v>
+      </c>
+      <c r="F2" s="11">
+        <v>831.83</v>
+      </c>
+      <c r="G2" s="11">
+        <v>55.89</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13">
+        <v>9168.17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>1942</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="12">
+        <v>42019</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="13">
-        <v>42036</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="12">
-        <v>887.72</v>
-      </c>
-      <c r="F2" s="12">
-        <v>831.83</v>
-      </c>
-      <c r="G2" s="12">
-        <v>55.89</v>
-      </c>
-      <c r="H2" s="12">
-        <v>0</v>
-      </c>
-      <c r="I2" s="12">
-        <v>0</v>
-      </c>
-      <c r="J2" s="14">
-        <v>9168.17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
-        <v>1942</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="13">
+      <c r="E3" s="11">
+        <v>100</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
+        <v>100</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>1941</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="12">
         <v>42019</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="12">
-        <v>100</v>
-      </c>
-      <c r="F3" s="12">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
-        <v>100</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="15">
+      <c r="D4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="14">
         <v>10000</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
-        <v>1941</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="13">
-        <v>42019</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="15">
-        <v>10000</v>
-      </c>
-      <c r="F4" s="12">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0</v>
-      </c>
-      <c r="H4" s="12">
-        <v>0</v>
-      </c>
-      <c r="I4" s="12">
-        <v>0</v>
-      </c>
-      <c r="J4" s="15">
+      <c r="F4" s="11">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
         <v>10000</v>
       </c>
     </row>
